--- a/bantuin/aldo/spk/UAS/Aldo Hermawan Suryana - 201011401246 - UTS SPK.xlsx
+++ b/bantuin/aldo/spk/UAS/Aldo Hermawan Suryana - 201011401246 - UTS SPK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\bantuin\aldo\spk\UTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\bantuin\aldo\spk\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5BCC5C-BFF0-4EC6-B424-70740D596AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DAB9C-F3B0-44BA-BC99-494231F0F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68E6060E-666C-4768-A0FD-7F510B0E59CE}"/>
   </bookViews>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B244D-911D-45BE-82A7-5139286C9D27}">
   <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
